--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1413,6 +1445,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1452,6 +1485,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1532,6 +1567,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1573,6 +1609,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1614,6 +1651,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,6 +1691,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1692,6 +1731,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1719,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1731,6 +1771,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1758,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,6 +1811,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1809,6 +1851,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1848,6 +1891,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1887,6 +1931,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1926,6 +1971,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1965,6 +2011,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,6 +2051,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2043,6 +2091,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2082,6 +2131,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2109,17 +2159,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1.076086956521739</v>
       </c>
     </row>
     <row r="48">
@@ -2152,12 +2203,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2193,6 +2243,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2220,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2228,6 +2279,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2255,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2263,6 +2315,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2290,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2298,6 +2351,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2325,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2333,6 +2387,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,6 +2423,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2395,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2403,6 +2459,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2438,6 +2495,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2473,6 +2531,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2508,6 +2567,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2543,6 +2603,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2578,6 +2639,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2613,6 +2675,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2648,6 +2711,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2683,6 +2747,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2718,6 +2783,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2753,6 +2819,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2788,6 +2855,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2815,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2823,6 +2891,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2858,6 +2927,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2893,6 +2963,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2928,6 +2999,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2955,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2963,6 +3035,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2990,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2998,6 +3071,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3033,6 +3107,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,6 +3143,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3103,6 +3179,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,6 +3215,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3173,6 +3251,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,6 +3287,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3243,6 +3323,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3278,6 +3359,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3305,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3313,6 +3395,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3348,6 +3431,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3383,6 +3467,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3418,6 +3503,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3453,6 +3539,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3488,6 +3575,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3523,6 +3611,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3558,6 +3647,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3593,6 +3683,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3628,6 +3719,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3663,6 +3755,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,6 +3791,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,6 +3827,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,6 +3863,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3803,6 +3899,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3838,6 +3935,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3873,6 +3971,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3908,6 +4007,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3943,6 +4043,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3978,6 +4079,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4005,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4013,6 +4115,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4040,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4048,6 +4151,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4083,6 +4187,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4118,6 +4223,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4153,6 +4259,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4188,6 +4295,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4223,6 +4331,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4258,6 +4367,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4293,6 +4403,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4328,6 +4439,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4363,6 +4475,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4398,6 +4511,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4433,6 +4547,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4468,6 +4583,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4503,6 +4619,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.78</v>
+        <v>11.91</v>
       </c>
       <c r="C2" t="n">
-        <v>12.86</v>
+        <v>11.91</v>
       </c>
       <c r="D2" t="n">
-        <v>12.86</v>
+        <v>11.91</v>
       </c>
       <c r="E2" t="n">
-        <v>12.61</v>
+        <v>11.91</v>
       </c>
       <c r="F2" t="n">
-        <v>100063.6434392744</v>
+        <v>203013.2136</v>
       </c>
       <c r="G2" t="n">
-        <v>4424.096760079032</v>
+        <v>-2030064.324073945</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.86</v>
+        <v>11.91</v>
       </c>
       <c r="C3" t="n">
-        <v>12.86</v>
+        <v>11.91</v>
       </c>
       <c r="D3" t="n">
-        <v>12.87</v>
+        <v>11.91</v>
       </c>
       <c r="E3" t="n">
-        <v>12.86</v>
+        <v>11.91</v>
       </c>
       <c r="F3" t="n">
-        <v>43222.6528</v>
+        <v>352101.0423</v>
       </c>
       <c r="G3" t="n">
-        <v>4424.096760079032</v>
+        <v>-2030064.324073945</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.61</v>
+        <v>11.91</v>
       </c>
       <c r="C4" t="n">
-        <v>12.85</v>
+        <v>11.91</v>
       </c>
       <c r="D4" t="n">
-        <v>12.85</v>
+        <v>11.91</v>
       </c>
       <c r="E4" t="n">
-        <v>12.61</v>
+        <v>11.91</v>
       </c>
       <c r="F4" t="n">
-        <v>96147.1651</v>
+        <v>160586.624</v>
       </c>
       <c r="G4" t="n">
-        <v>-91723.06833992097</v>
+        <v>-2030064.324073945</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.79</v>
+        <v>11.91</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6</v>
+        <v>11.91</v>
       </c>
       <c r="D5" t="n">
-        <v>12.79</v>
+        <v>11.91</v>
       </c>
       <c r="E5" t="n">
-        <v>12.6</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>141921.4605</v>
+        <v>14158.3214</v>
       </c>
       <c r="G5" t="n">
-        <v>-233644.5288399209</v>
+        <v>-2030064.324073945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.65</v>
+        <v>11.91</v>
       </c>
       <c r="C6" t="n">
-        <v>12.75</v>
+        <v>11.91</v>
       </c>
       <c r="D6" t="n">
-        <v>12.75</v>
+        <v>11.91</v>
       </c>
       <c r="E6" t="n">
-        <v>12.65</v>
+        <v>11.91</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>37865.0367</v>
       </c>
       <c r="G6" t="n">
-        <v>-233588.5288399209</v>
+        <v>-2030064.324073945</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6</v>
+        <v>12.08</v>
       </c>
       <c r="C7" t="n">
-        <v>12.65</v>
+        <v>12.1</v>
       </c>
       <c r="D7" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.48</v>
+        <v>12.08</v>
       </c>
       <c r="F7" t="n">
-        <v>123990.9106</v>
+        <v>53828.8515</v>
       </c>
       <c r="G7" t="n">
-        <v>-357579.4394399209</v>
+        <v>-1976235.472573945</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.48</v>
+        <v>11.98</v>
       </c>
       <c r="C8" t="n">
-        <v>12.65</v>
+        <v>11.98</v>
       </c>
       <c r="D8" t="n">
-        <v>12.65</v>
+        <v>11.98</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3</v>
+        <v>11.98</v>
       </c>
       <c r="F8" t="n">
-        <v>16061.4047</v>
+        <v>46094.9162</v>
       </c>
       <c r="G8" t="n">
-        <v>-357579.4394399209</v>
+        <v>-2022330.388773945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.59</v>
+        <v>11.98</v>
       </c>
       <c r="C9" t="n">
-        <v>12.59</v>
+        <v>11.98</v>
       </c>
       <c r="D9" t="n">
-        <v>12.59</v>
+        <v>11.98</v>
       </c>
       <c r="E9" t="n">
-        <v>12.59</v>
+        <v>11.98</v>
       </c>
       <c r="F9" t="n">
-        <v>3942.6877</v>
+        <v>3636.1716</v>
       </c>
       <c r="G9" t="n">
-        <v>-361522.127139921</v>
+        <v>-2022330.388773945</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.63</v>
+        <v>11.95</v>
       </c>
       <c r="C10" t="n">
-        <v>12.69</v>
+        <v>11.95</v>
       </c>
       <c r="D10" t="n">
-        <v>12.69</v>
+        <v>11.95</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63</v>
+        <v>11.95</v>
       </c>
       <c r="F10" t="n">
-        <v>110</v>
+        <v>8144.896</v>
       </c>
       <c r="G10" t="n">
-        <v>-361412.127139921</v>
+        <v>-2030475.284773945</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4</v>
+        <v>11.95</v>
       </c>
       <c r="C11" t="n">
-        <v>12.55</v>
+        <v>11.95</v>
       </c>
       <c r="D11" t="n">
-        <v>12.55</v>
+        <v>11.95</v>
       </c>
       <c r="E11" t="n">
-        <v>12.29</v>
+        <v>11.95</v>
       </c>
       <c r="F11" t="n">
-        <v>2905.4604</v>
+        <v>55106.4798</v>
       </c>
       <c r="G11" t="n">
-        <v>-364317.5875399209</v>
+        <v>-2030475.284773945</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,31 +798,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.55</v>
+        <v>11.95</v>
       </c>
       <c r="C12" t="n">
-        <v>12.59</v>
+        <v>11.95</v>
       </c>
       <c r="D12" t="n">
-        <v>12.64</v>
+        <v>11.95</v>
       </c>
       <c r="E12" t="n">
-        <v>12.55</v>
+        <v>11.95</v>
       </c>
       <c r="F12" t="n">
-        <v>138</v>
+        <v>16066.945</v>
       </c>
       <c r="G12" t="n">
-        <v>-364179.5875399209</v>
+        <v>-2030475.284773945</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,32 +838,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.57</v>
+        <v>11.94</v>
       </c>
       <c r="C13" t="n">
-        <v>12.57</v>
+        <v>11.94</v>
       </c>
       <c r="D13" t="n">
-        <v>12.57</v>
+        <v>11.94</v>
       </c>
       <c r="E13" t="n">
-        <v>12.57</v>
+        <v>11.94</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>6560.3849</v>
       </c>
       <c r="G13" t="n">
-        <v>-364223.5875399209</v>
+        <v>-2037035.669673945</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +882,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.57</v>
+        <v>12.07</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4</v>
+        <v>12.13</v>
       </c>
       <c r="D14" t="n">
-        <v>12.57</v>
+        <v>12.13</v>
       </c>
       <c r="E14" t="n">
-        <v>12.21</v>
+        <v>12.07</v>
       </c>
       <c r="F14" t="n">
-        <v>106373.5456</v>
+        <v>41024.6833</v>
       </c>
       <c r="G14" t="n">
-        <v>-470597.1331399209</v>
+        <v>-1996010.986373945</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,31 +926,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.16</v>
+        <v>12.13</v>
       </c>
       <c r="C15" t="n">
-        <v>12.17</v>
+        <v>12.13</v>
       </c>
       <c r="D15" t="n">
-        <v>12.17</v>
+        <v>12.13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.16</v>
+        <v>12.13</v>
       </c>
       <c r="F15" t="n">
-        <v>139350.4308</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>-609947.563939921</v>
+        <v>-1996010.986373945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -942,32 +966,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.29</v>
+        <v>12.13</v>
       </c>
       <c r="C16" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="D16" t="n">
-        <v>12.29</v>
+        <v>12.13</v>
       </c>
       <c r="E16" t="n">
-        <v>11.96</v>
+        <v>12.13</v>
       </c>
       <c r="F16" t="n">
-        <v>550077.078</v>
+        <v>2680.9512</v>
       </c>
       <c r="G16" t="n">
-        <v>-59870.485939921</v>
+        <v>-1996010.986373945</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1010,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="C17" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="D17" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="E17" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="F17" t="n">
-        <v>1540</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>-61410.485939921</v>
+        <v>-1995960.986373945</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1034,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1052,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.09</v>
+        <v>12.11</v>
       </c>
       <c r="C18" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="D18" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="E18" t="n">
-        <v>11.96</v>
+        <v>12.11</v>
       </c>
       <c r="F18" t="n">
-        <v>91898.07120000001</v>
+        <v>35938.2835</v>
       </c>
       <c r="G18" t="n">
-        <v>-153308.557139921</v>
+        <v>-2031899.269873945</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1096,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="C19" t="n">
-        <v>12.14</v>
+        <v>12.12</v>
       </c>
       <c r="D19" t="n">
-        <v>12.14</v>
+        <v>12.12</v>
       </c>
       <c r="E19" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="F19" t="n">
-        <v>80160.8444</v>
+        <v>36153.1978</v>
       </c>
       <c r="G19" t="n">
-        <v>-73147.712739921</v>
+        <v>-2031899.269873945</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1120,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1138,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="C20" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="D20" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="E20" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="F20" t="n">
-        <v>6036.7067</v>
+        <v>7500</v>
       </c>
       <c r="G20" t="n">
-        <v>-67111.00603992101</v>
+        <v>-2031899.269873945</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1180,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="C21" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="D21" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="E21" t="n">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="F21" t="n">
-        <v>45250.0711</v>
+        <v>21618</v>
       </c>
       <c r="G21" t="n">
-        <v>-112361.077139921</v>
+        <v>-2010281.269873945</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1224,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="C22" t="n">
-        <v>12.17</v>
+        <v>12.2</v>
       </c>
       <c r="D22" t="n">
-        <v>12.17</v>
+        <v>12.2</v>
       </c>
       <c r="E22" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F22" t="n">
-        <v>10673.3153</v>
+        <v>380813.5021</v>
       </c>
       <c r="G22" t="n">
-        <v>-101687.761839921</v>
+        <v>-2010281.269873945</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1197,19 +1269,19 @@
         <v>12.2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.14</v>
+        <v>12.28</v>
       </c>
       <c r="D23" t="n">
-        <v>12.33</v>
+        <v>12.28</v>
       </c>
       <c r="E23" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F23" t="n">
-        <v>354.291</v>
+        <v>1185533.0586</v>
       </c>
       <c r="G23" t="n">
-        <v>-102042.052839921</v>
+        <v>-824748.2112739447</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1290,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1308,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.14</v>
+        <v>12.28</v>
       </c>
       <c r="C24" t="n">
-        <v>12.29</v>
+        <v>12.38</v>
       </c>
       <c r="D24" t="n">
-        <v>12.29</v>
+        <v>12.38</v>
       </c>
       <c r="E24" t="n">
-        <v>12.14</v>
+        <v>12.28</v>
       </c>
       <c r="F24" t="n">
-        <v>226.1026</v>
+        <v>109430.9289</v>
       </c>
       <c r="G24" t="n">
-        <v>-101815.950239921</v>
+        <v>-715317.2823739448</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1332,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1350,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.29</v>
+        <v>12.36</v>
       </c>
       <c r="C25" t="n">
-        <v>12.29</v>
+        <v>12.55</v>
       </c>
       <c r="D25" t="n">
-        <v>12.29</v>
+        <v>12.55</v>
       </c>
       <c r="E25" t="n">
-        <v>12.29</v>
+        <v>12.36</v>
       </c>
       <c r="F25" t="n">
-        <v>7075.6883</v>
+        <v>273194.2777340239</v>
       </c>
       <c r="G25" t="n">
-        <v>-101815.950239921</v>
+        <v>-442123.0046399208</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1374,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1392,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.1</v>
+        <v>12.55</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="D26" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>12.55</v>
       </c>
       <c r="F26" t="n">
-        <v>50047.2173</v>
+        <v>343473.4579607255</v>
       </c>
       <c r="G26" t="n">
-        <v>-151863.167539921</v>
+        <v>-98649.54667919537</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1416,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1434,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.27</v>
+        <v>12.68</v>
       </c>
       <c r="C27" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="D27" t="n">
-        <v>12.27</v>
+        <v>12.7</v>
       </c>
       <c r="E27" t="n">
-        <v>12.1</v>
+        <v>12.68</v>
       </c>
       <c r="F27" t="n">
-        <v>839.3507</v>
+        <v>1860</v>
       </c>
       <c r="G27" t="n">
-        <v>-152702.518239921</v>
+        <v>-96789.54667919537</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1458,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1476,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.09</v>
+        <v>12.6</v>
       </c>
       <c r="C28" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="D28" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="E28" t="n">
-        <v>12.09</v>
+        <v>12.6</v>
       </c>
       <c r="F28" t="n">
-        <v>623.2672</v>
+        <v>1644.2831</v>
       </c>
       <c r="G28" t="n">
-        <v>-152702.518239921</v>
+        <v>-96789.54667919537</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1500,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,36 +1518,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.09</v>
+        <v>12.7</v>
       </c>
       <c r="C29" t="n">
-        <v>12.02</v>
+        <v>12.78</v>
       </c>
       <c r="D29" t="n">
-        <v>12.09</v>
+        <v>12.78</v>
       </c>
       <c r="E29" t="n">
-        <v>12.02</v>
+        <v>12.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>1150</v>
       </c>
       <c r="G29" t="n">
-        <v>-157702.518239921</v>
+        <v>-95639.54667919537</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1452,22 +1560,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1</v>
+        <v>12.78</v>
       </c>
       <c r="C30" t="n">
-        <v>12.1</v>
+        <v>12.78</v>
       </c>
       <c r="D30" t="n">
-        <v>12.17</v>
+        <v>12.78</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1</v>
+        <v>12.78</v>
       </c>
       <c r="F30" t="n">
-        <v>6402.2665</v>
+        <v>208.3668</v>
       </c>
       <c r="G30" t="n">
-        <v>-151300.251739921</v>
+        <v>-95639.54667919537</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1476,7 +1584,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,33 +1602,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.1</v>
+        <v>12.78</v>
       </c>
       <c r="C31" t="n">
-        <v>12.19</v>
+        <v>12.86</v>
       </c>
       <c r="D31" t="n">
-        <v>12.19</v>
+        <v>12.86</v>
       </c>
       <c r="E31" t="n">
-        <v>12.1</v>
+        <v>12.61</v>
       </c>
       <c r="F31" t="n">
-        <v>4294</v>
+        <v>100063.6434392744</v>
       </c>
       <c r="G31" t="n">
-        <v>-147006.251739921</v>
+        <v>4424.096760079032</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,22 +1644,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.17</v>
+        <v>12.86</v>
       </c>
       <c r="C32" t="n">
-        <v>12.17</v>
+        <v>12.86</v>
       </c>
       <c r="D32" t="n">
-        <v>12.17</v>
+        <v>12.87</v>
       </c>
       <c r="E32" t="n">
-        <v>12.17</v>
+        <v>12.86</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>43222.6528</v>
       </c>
       <c r="G32" t="n">
-        <v>-147056.251739921</v>
+        <v>4424.096760079032</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1558,7 +1668,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1574,33 +1686,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.19</v>
+        <v>12.61</v>
       </c>
       <c r="C33" t="n">
-        <v>12.19</v>
+        <v>12.85</v>
       </c>
       <c r="D33" t="n">
-        <v>12.19</v>
+        <v>12.85</v>
       </c>
       <c r="E33" t="n">
-        <v>12.19</v>
+        <v>12.61</v>
       </c>
       <c r="F33" t="n">
-        <v>77</v>
+        <v>96147.1651</v>
       </c>
       <c r="G33" t="n">
-        <v>-146979.251739921</v>
+        <v>-91723.06833992097</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,33 +1728,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.24</v>
+        <v>12.79</v>
       </c>
       <c r="C34" t="n">
-        <v>12.24</v>
+        <v>12.6</v>
       </c>
       <c r="D34" t="n">
-        <v>12.24</v>
+        <v>12.79</v>
       </c>
       <c r="E34" t="n">
-        <v>12.24</v>
+        <v>12.6</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>141921.4605</v>
       </c>
       <c r="G34" t="n">
-        <v>-146929.251739921</v>
+        <v>-233644.5288399209</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,38 +1770,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.28</v>
+        <v>12.65</v>
       </c>
       <c r="C35" t="n">
-        <v>12.27</v>
+        <v>12.75</v>
       </c>
       <c r="D35" t="n">
-        <v>12.28</v>
+        <v>12.75</v>
       </c>
       <c r="E35" t="n">
-        <v>12.27</v>
+        <v>12.65</v>
       </c>
       <c r="F35" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="G35" t="n">
-        <v>-146824.251739921</v>
+        <v>-233588.5288399209</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>12.13</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>1.046112943116241</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1698,36 +1812,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12.69</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>12.48</v>
       </c>
       <c r="F36" t="n">
-        <v>66</v>
+        <v>123990.9106</v>
       </c>
       <c r="G36" t="n">
-        <v>-146890.251739921</v>
+        <v>-357579.4394399209</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1738,36 +1848,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.19</v>
+        <v>12.48</v>
       </c>
       <c r="C37" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="D37" t="n">
-        <v>12.19</v>
+        <v>12.65</v>
       </c>
       <c r="E37" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F37" t="n">
-        <v>172</v>
+        <v>16061.4047</v>
       </c>
       <c r="G37" t="n">
-        <v>-146890.251739921</v>
+        <v>-357579.4394399209</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1778,36 +1884,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.05</v>
+        <v>12.59</v>
       </c>
       <c r="C38" t="n">
-        <v>12.05</v>
+        <v>12.59</v>
       </c>
       <c r="D38" t="n">
-        <v>12.05</v>
+        <v>12.59</v>
       </c>
       <c r="E38" t="n">
-        <v>12.05</v>
+        <v>12.59</v>
       </c>
       <c r="F38" t="n">
-        <v>151880.6224</v>
+        <v>3942.6877</v>
       </c>
       <c r="G38" t="n">
-        <v>-298770.874139921</v>
+        <v>-361522.127139921</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1818,36 +1920,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.05</v>
+        <v>12.63</v>
       </c>
       <c r="C39" t="n">
-        <v>12.01</v>
+        <v>12.69</v>
       </c>
       <c r="D39" t="n">
-        <v>12.05</v>
+        <v>12.69</v>
       </c>
       <c r="E39" t="n">
-        <v>12.01</v>
+        <v>12.63</v>
       </c>
       <c r="F39" t="n">
-        <v>29154.5362</v>
+        <v>110</v>
       </c>
       <c r="G39" t="n">
-        <v>-327925.410339921</v>
+        <v>-361412.127139921</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1858,36 +1956,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.01</v>
+        <v>12.4</v>
       </c>
       <c r="C40" t="n">
-        <v>12.01</v>
+        <v>12.55</v>
       </c>
       <c r="D40" t="n">
-        <v>12.01</v>
+        <v>12.55</v>
       </c>
       <c r="E40" t="n">
-        <v>12.01</v>
+        <v>12.29</v>
       </c>
       <c r="F40" t="n">
-        <v>1983.2665</v>
+        <v>2905.4604</v>
       </c>
       <c r="G40" t="n">
-        <v>-327925.410339921</v>
+        <v>-364317.5875399209</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1898,36 +1992,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.01</v>
+        <v>12.55</v>
       </c>
       <c r="C41" t="n">
-        <v>12.01</v>
+        <v>12.59</v>
       </c>
       <c r="D41" t="n">
-        <v>12.01</v>
+        <v>12.64</v>
       </c>
       <c r="E41" t="n">
-        <v>12.01</v>
+        <v>12.55</v>
       </c>
       <c r="F41" t="n">
-        <v>11614.8526</v>
+        <v>138</v>
       </c>
       <c r="G41" t="n">
-        <v>-327925.410339921</v>
+        <v>-364179.5875399209</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2028,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="C42" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="D42" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="E42" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="F42" t="n">
-        <v>134000</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>-327925.410339921</v>
+        <v>-364223.5875399209</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1963,11 +2053,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1978,36 +2064,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="C43" t="n">
-        <v>11.98</v>
+        <v>12.4</v>
       </c>
       <c r="D43" t="n">
-        <v>12.01</v>
+        <v>12.57</v>
       </c>
       <c r="E43" t="n">
-        <v>11.98</v>
+        <v>12.21</v>
       </c>
       <c r="F43" t="n">
-        <v>90094.9656</v>
+        <v>106373.5456</v>
       </c>
       <c r="G43" t="n">
-        <v>-418020.375939921</v>
+        <v>-470597.1331399209</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2018,22 +2100,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.98</v>
+        <v>12.16</v>
       </c>
       <c r="C44" t="n">
-        <v>11.92</v>
+        <v>12.17</v>
       </c>
       <c r="D44" t="n">
-        <v>11.98</v>
+        <v>12.17</v>
       </c>
       <c r="E44" t="n">
-        <v>11.92</v>
+        <v>12.16</v>
       </c>
       <c r="F44" t="n">
-        <v>314555.642</v>
+        <v>139350.4308</v>
       </c>
       <c r="G44" t="n">
-        <v>-732576.017939921</v>
+        <v>-609947.563939921</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2043,11 +2125,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2136,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.92</v>
+        <v>12.29</v>
       </c>
       <c r="C45" t="n">
-        <v>11.91</v>
+        <v>12.28</v>
       </c>
       <c r="D45" t="n">
-        <v>11.92</v>
+        <v>12.29</v>
       </c>
       <c r="E45" t="n">
-        <v>11.91</v>
+        <v>11.96</v>
       </c>
       <c r="F45" t="n">
-        <v>97669.63559999999</v>
+        <v>550077.078</v>
       </c>
       <c r="G45" t="n">
-        <v>-830245.653539921</v>
+        <v>-59870.485939921</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2083,11 +2161,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2172,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="E46" t="n">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>43</v>
+        <v>1540</v>
       </c>
       <c r="G46" t="n">
-        <v>-830202.653539921</v>
+        <v>-61410.485939921</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2123,11 +2197,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2138,68 +2208,64 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="C47" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="D47" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="E47" t="n">
-        <v>12.04</v>
+        <v>11.96</v>
       </c>
       <c r="F47" t="n">
-        <v>77.1353</v>
+        <v>91898.07120000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-830279.788839921</v>
+        <v>-153308.557139921</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>1.076086956521739</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="C48" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="D48" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="E48" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="F48" t="n">
-        <v>12944.3884</v>
+        <v>80160.8444</v>
       </c>
       <c r="G48" t="n">
-        <v>-817335.400439921</v>
+        <v>-73147.712739921</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2214,28 +2280,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="C49" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="D49" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="E49" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="F49" t="n">
-        <v>1983.4182</v>
+        <v>6036.7067</v>
       </c>
       <c r="G49" t="n">
-        <v>-817335.400439921</v>
+        <v>-67111.00603992101</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2250,28 +2316,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.05</v>
+        <v>12.09</v>
       </c>
       <c r="C50" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="D50" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="E50" t="n">
-        <v>12.05</v>
+        <v>12.09</v>
       </c>
       <c r="F50" t="n">
-        <v>3926.3392</v>
+        <v>45250.0711</v>
       </c>
       <c r="G50" t="n">
-        <v>-817335.400439921</v>
+        <v>-112361.077139921</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2286,28 +2352,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="C51" t="n">
-        <v>12.06</v>
+        <v>12.17</v>
       </c>
       <c r="D51" t="n">
-        <v>12.06</v>
+        <v>12.17</v>
       </c>
       <c r="E51" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="F51" t="n">
-        <v>179</v>
+        <v>10673.3153</v>
       </c>
       <c r="G51" t="n">
-        <v>-817156.400439921</v>
+        <v>-101687.761839921</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2322,28 +2388,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.09</v>
+        <v>12.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="D52" t="n">
-        <v>12.09</v>
+        <v>12.33</v>
       </c>
       <c r="E52" t="n">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="F52" t="n">
-        <v>43</v>
+        <v>354.291</v>
       </c>
       <c r="G52" t="n">
-        <v>-817113.400439921</v>
+        <v>-102042.052839921</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2358,28 +2424,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>12.29</v>
       </c>
       <c r="D53" t="n">
-        <v>12</v>
+        <v>12.29</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="F53" t="n">
-        <v>513.9512</v>
+        <v>226.1026</v>
       </c>
       <c r="G53" t="n">
-        <v>-817627.351639921</v>
+        <v>-101815.950239921</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2394,22 +2460,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.08</v>
+        <v>12.29</v>
       </c>
       <c r="C54" t="n">
-        <v>12.08</v>
+        <v>12.29</v>
       </c>
       <c r="D54" t="n">
-        <v>12.08</v>
+        <v>12.29</v>
       </c>
       <c r="E54" t="n">
-        <v>12.08</v>
+        <v>12.29</v>
       </c>
       <c r="F54" t="n">
-        <v>62.866</v>
+        <v>7075.6883</v>
       </c>
       <c r="G54" t="n">
-        <v>-817564.4856399209</v>
+        <v>-101815.950239921</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2430,28 +2496,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="C55" t="n">
-        <v>11.96</v>
+        <v>12.2</v>
       </c>
       <c r="D55" t="n">
-        <v>11.96</v>
+        <v>12.2</v>
       </c>
       <c r="E55" t="n">
-        <v>11.96</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>1639.6321</v>
+        <v>50047.2173</v>
       </c>
       <c r="G55" t="n">
-        <v>-819204.117739921</v>
+        <v>-151863.167539921</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2466,22 +2532,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.96</v>
+        <v>12.27</v>
       </c>
       <c r="C56" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="D56" t="n">
-        <v>11.96</v>
+        <v>12.27</v>
       </c>
       <c r="E56" t="n">
-        <v>11.96</v>
+        <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>451.0852</v>
+        <v>839.3507</v>
       </c>
       <c r="G56" t="n">
-        <v>-819204.117739921</v>
+        <v>-152702.518239921</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2505,19 +2571,19 @@
         <v>12.09</v>
       </c>
       <c r="C57" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="D57" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="E57" t="n">
         <v>12.09</v>
       </c>
       <c r="F57" t="n">
-        <v>77</v>
+        <v>623.2672</v>
       </c>
       <c r="G57" t="n">
-        <v>-819127.117739921</v>
+        <v>-152702.518239921</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2538,22 +2604,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.97</v>
+        <v>12.09</v>
       </c>
       <c r="C58" t="n">
-        <v>11.97</v>
+        <v>12.02</v>
       </c>
       <c r="D58" t="n">
-        <v>11.97</v>
+        <v>12.09</v>
       </c>
       <c r="E58" t="n">
-        <v>11.97</v>
+        <v>12.02</v>
       </c>
       <c r="F58" t="n">
-        <v>7848.4349</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="n">
-        <v>-826975.552639921</v>
+        <v>-157702.518239921</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2574,22 +2640,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="C59" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="D59" t="n">
-        <v>11.97</v>
+        <v>12.17</v>
       </c>
       <c r="E59" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="F59" t="n">
-        <v>77</v>
+        <v>6402.2665</v>
       </c>
       <c r="G59" t="n">
-        <v>-826975.552639921</v>
+        <v>-151300.251739921</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2610,22 +2676,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="C60" t="n">
-        <v>12.09</v>
+        <v>12.19</v>
       </c>
       <c r="D60" t="n">
-        <v>12.09</v>
+        <v>12.19</v>
       </c>
       <c r="E60" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="F60" t="n">
-        <v>42</v>
+        <v>4294</v>
       </c>
       <c r="G60" t="n">
-        <v>-826933.552639921</v>
+        <v>-147006.251739921</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2646,22 +2712,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.09</v>
+        <v>12.17</v>
       </c>
       <c r="C61" t="n">
-        <v>12.09</v>
+        <v>12.17</v>
       </c>
       <c r="D61" t="n">
-        <v>12.09</v>
+        <v>12.17</v>
       </c>
       <c r="E61" t="n">
-        <v>12.09</v>
+        <v>12.17</v>
       </c>
       <c r="F61" t="n">
-        <v>6115.28</v>
+        <v>50</v>
       </c>
       <c r="G61" t="n">
-        <v>-826933.552639921</v>
+        <v>-147056.251739921</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2682,22 +2748,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.09</v>
+        <v>12.19</v>
       </c>
       <c r="C62" t="n">
-        <v>12.12</v>
+        <v>12.19</v>
       </c>
       <c r="D62" t="n">
-        <v>12.12</v>
+        <v>12.19</v>
       </c>
       <c r="E62" t="n">
-        <v>12.09</v>
+        <v>12.19</v>
       </c>
       <c r="F62" t="n">
-        <v>3259.966520462046</v>
+        <v>77</v>
       </c>
       <c r="G62" t="n">
-        <v>-823673.5861194589</v>
+        <v>-146979.251739921</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2718,22 +2784,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.12</v>
+        <v>12.24</v>
       </c>
       <c r="C63" t="n">
-        <v>12.17</v>
+        <v>12.24</v>
       </c>
       <c r="D63" t="n">
-        <v>12.17</v>
+        <v>12.24</v>
       </c>
       <c r="E63" t="n">
-        <v>12.12</v>
+        <v>12.24</v>
       </c>
       <c r="F63" t="n">
-        <v>13131.62637953795</v>
+        <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-810541.9597399209</v>
+        <v>-146929.251739921</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2754,22 +2820,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.17</v>
+        <v>12.28</v>
       </c>
       <c r="C64" t="n">
-        <v>12.17</v>
+        <v>12.27</v>
       </c>
       <c r="D64" t="n">
-        <v>12.17</v>
+        <v>12.28</v>
       </c>
       <c r="E64" t="n">
-        <v>12.17</v>
+        <v>12.27</v>
       </c>
       <c r="F64" t="n">
-        <v>46047.2232</v>
+        <v>105</v>
       </c>
       <c r="G64" t="n">
-        <v>-810541.9597399209</v>
+        <v>-146824.251739921</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2790,22 +2856,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="C65" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="D65" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="E65" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="F65" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G65" t="n">
-        <v>-810499.9597399209</v>
+        <v>-146890.251739921</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2829,19 +2895,19 @@
         <v>12.19</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>12.19</v>
       </c>
       <c r="E66" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>48690.2585</v>
+        <v>172</v>
       </c>
       <c r="G66" t="n">
-        <v>-761809.7012399209</v>
+        <v>-146890.251739921</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2862,28 +2928,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.3</v>
+        <v>12.05</v>
       </c>
       <c r="C67" t="n">
-        <v>12.3</v>
+        <v>12.05</v>
       </c>
       <c r="D67" t="n">
-        <v>12.3</v>
+        <v>12.05</v>
       </c>
       <c r="E67" t="n">
-        <v>12.3</v>
+        <v>12.05</v>
       </c>
       <c r="F67" t="n">
-        <v>5254.1508</v>
+        <v>151880.6224</v>
       </c>
       <c r="G67" t="n">
-        <v>-761809.7012399209</v>
+        <v>-298770.874139921</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2898,28 +2964,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.2</v>
+        <v>12.05</v>
       </c>
       <c r="C68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="D68" t="n">
-        <v>12.2</v>
+        <v>12.05</v>
       </c>
       <c r="E68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="F68" t="n">
-        <v>36000</v>
+        <v>29154.5362</v>
       </c>
       <c r="G68" t="n">
-        <v>-797809.7012399209</v>
+        <v>-327925.410339921</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2934,22 +3000,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="D69" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="E69" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="F69" t="n">
-        <v>12723.9957</v>
+        <v>1983.2665</v>
       </c>
       <c r="G69" t="n">
-        <v>-797809.7012399209</v>
+        <v>-327925.410339921</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2970,22 +3036,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="C70" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="D70" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="E70" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="F70" t="n">
-        <v>43</v>
+        <v>11614.8526</v>
       </c>
       <c r="G70" t="n">
-        <v>-797766.7012399209</v>
+        <v>-327925.410339921</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3006,28 +3072,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="C71" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="D71" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="E71" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="F71" t="n">
-        <v>304.878</v>
+        <v>134000</v>
       </c>
       <c r="G71" t="n">
-        <v>-797766.7012399209</v>
+        <v>-327925.410339921</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3042,28 +3108,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="C72" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="D72" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="E72" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="F72" t="n">
-        <v>204.918</v>
+        <v>90094.9656</v>
       </c>
       <c r="G72" t="n">
-        <v>-797971.6192399209</v>
+        <v>-418020.375939921</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3078,22 +3144,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.19</v>
+        <v>11.98</v>
       </c>
       <c r="C73" t="n">
-        <v>12.19</v>
+        <v>11.92</v>
       </c>
       <c r="D73" t="n">
-        <v>12.19</v>
+        <v>11.98</v>
       </c>
       <c r="E73" t="n">
-        <v>12.19</v>
+        <v>11.92</v>
       </c>
       <c r="F73" t="n">
-        <v>55.7415</v>
+        <v>314555.642</v>
       </c>
       <c r="G73" t="n">
-        <v>-798027.3607399209</v>
+        <v>-732576.017939921</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3114,22 +3180,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.17</v>
+        <v>11.92</v>
       </c>
       <c r="C74" t="n">
-        <v>11.97</v>
+        <v>11.91</v>
       </c>
       <c r="D74" t="n">
-        <v>12.17</v>
+        <v>11.92</v>
       </c>
       <c r="E74" t="n">
-        <v>11.97</v>
+        <v>11.91</v>
       </c>
       <c r="F74" t="n">
-        <v>30648.4257</v>
+        <v>97669.63559999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-828675.7864399209</v>
+        <v>-830245.653539921</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3150,22 +3216,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.19</v>
+        <v>12.07</v>
       </c>
       <c r="C75" t="n">
-        <v>12.19</v>
+        <v>12.07</v>
       </c>
       <c r="D75" t="n">
-        <v>12.19</v>
+        <v>12.07</v>
       </c>
       <c r="E75" t="n">
-        <v>12.19</v>
+        <v>12.07</v>
       </c>
       <c r="F75" t="n">
         <v>43</v>
       </c>
       <c r="G75" t="n">
-        <v>-828632.7864399209</v>
+        <v>-830202.653539921</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3186,22 +3252,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="F76" t="n">
-        <v>1250</v>
+        <v>77.1353</v>
       </c>
       <c r="G76" t="n">
-        <v>-829882.7864399209</v>
+        <v>-830279.788839921</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3222,7 +3288,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="C77" t="n">
         <v>12.05</v>
@@ -3231,13 +3297,13 @@
         <v>12.05</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="F77" t="n">
-        <v>1477</v>
+        <v>12944.3884</v>
       </c>
       <c r="G77" t="n">
-        <v>-828405.7864399209</v>
+        <v>-817335.400439921</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3261,19 +3327,19 @@
         <v>12.05</v>
       </c>
       <c r="C78" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="D78" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="E78" t="n">
         <v>12.05</v>
       </c>
       <c r="F78" t="n">
-        <v>21572.8481</v>
+        <v>1983.4182</v>
       </c>
       <c r="G78" t="n">
-        <v>-806832.9383399209</v>
+        <v>-817335.400439921</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3294,22 +3360,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="C79" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="D79" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="E79" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="F79" t="n">
-        <v>43</v>
+        <v>3926.3392</v>
       </c>
       <c r="G79" t="n">
-        <v>-806789.9383399209</v>
+        <v>-817335.400439921</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3330,22 +3396,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="C80" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="D80" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="E80" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="F80" t="n">
-        <v>15933.763</v>
+        <v>179</v>
       </c>
       <c r="G80" t="n">
-        <v>-806789.9383399209</v>
+        <v>-817156.400439921</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3366,28 +3432,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="C81" t="n">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="D81" t="n">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="E81" t="n">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="F81" t="n">
-        <v>27507.2228</v>
+        <v>43</v>
       </c>
       <c r="G81" t="n">
-        <v>-806789.9383399209</v>
+        <v>-817113.400439921</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3402,22 +3468,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
+        <v>513.9512</v>
       </c>
       <c r="G82" t="n">
-        <v>-806748.9383399209</v>
+        <v>-817627.351639921</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3438,22 +3504,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.11</v>
+        <v>12.08</v>
       </c>
       <c r="C83" t="n">
-        <v>12.11</v>
+        <v>12.08</v>
       </c>
       <c r="D83" t="n">
-        <v>12.11</v>
+        <v>12.08</v>
       </c>
       <c r="E83" t="n">
-        <v>12.11</v>
+        <v>12.08</v>
       </c>
       <c r="F83" t="n">
-        <v>403</v>
+        <v>62.866</v>
       </c>
       <c r="G83" t="n">
-        <v>-807151.9383399209</v>
+        <v>-817564.4856399209</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3474,22 +3540,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="C84" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>1639.6321</v>
       </c>
       <c r="G84" t="n">
-        <v>-807108.9383399209</v>
+        <v>-819204.117739921</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3510,22 +3576,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="C85" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="D85" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="E85" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="F85" t="n">
-        <v>16515</v>
+        <v>451.0852</v>
       </c>
       <c r="G85" t="n">
-        <v>-823623.9383399209</v>
+        <v>-819204.117739921</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3546,22 +3612,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.1</v>
+        <v>12.09</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>12.09</v>
       </c>
       <c r="D86" t="n">
-        <v>12.1</v>
+        <v>12.09</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12.09</v>
       </c>
       <c r="F86" t="n">
-        <v>2782</v>
+        <v>77</v>
       </c>
       <c r="G86" t="n">
-        <v>-826405.9383399209</v>
+        <v>-819127.117739921</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3582,22 +3648,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="C87" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="D87" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="E87" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="F87" t="n">
-        <v>862.7886</v>
+        <v>7848.4349</v>
       </c>
       <c r="G87" t="n">
-        <v>-827268.7269399209</v>
+        <v>-826975.552639921</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3618,22 +3684,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="C88" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="D88" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="E88" t="n">
-        <v>12.01</v>
+        <v>11.97</v>
       </c>
       <c r="F88" t="n">
-        <v>5252.4914</v>
+        <v>77</v>
       </c>
       <c r="G88" t="n">
-        <v>-827268.7269399209</v>
+        <v>-826975.552639921</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3654,22 +3720,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.01</v>
+        <v>12.09</v>
       </c>
       <c r="C89" t="n">
-        <v>12.01</v>
+        <v>12.09</v>
       </c>
       <c r="D89" t="n">
-        <v>12.01</v>
+        <v>12.09</v>
       </c>
       <c r="E89" t="n">
-        <v>12.01</v>
+        <v>12.09</v>
       </c>
       <c r="F89" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G89" t="n">
-        <v>-827268.7269399209</v>
+        <v>-826933.552639921</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3690,22 +3756,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="C90" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="D90" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="E90" t="n">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>6115.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-823268.7269399209</v>
+        <v>-826933.552639921</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3726,22 +3792,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="C91" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="D91" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="E91" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="F91" t="n">
-        <v>2782</v>
+        <v>3259.966520462046</v>
       </c>
       <c r="G91" t="n">
-        <v>-826050.7269399209</v>
+        <v>-823673.5861194589</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3762,22 +3828,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="C92" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="D92" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="E92" t="n">
-        <v>12.03</v>
+        <v>12.12</v>
       </c>
       <c r="F92" t="n">
-        <v>1690.7457</v>
+        <v>13131.62637953795</v>
       </c>
       <c r="G92" t="n">
-        <v>-826050.7269399209</v>
+        <v>-810541.9597399209</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3798,22 +3864,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="C93" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="D93" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="E93" t="n">
-        <v>12.03</v>
+        <v>12.17</v>
       </c>
       <c r="F93" t="n">
-        <v>24292.3916</v>
+        <v>46047.2232</v>
       </c>
       <c r="G93" t="n">
-        <v>-826050.7269399209</v>
+        <v>-810541.9597399209</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3834,22 +3900,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.03</v>
+        <v>12.19</v>
       </c>
       <c r="C94" t="n">
-        <v>12.03</v>
+        <v>12.19</v>
       </c>
       <c r="D94" t="n">
-        <v>12.03</v>
+        <v>12.19</v>
       </c>
       <c r="E94" t="n">
-        <v>12.03</v>
+        <v>12.19</v>
       </c>
       <c r="F94" t="n">
-        <v>1234.8627</v>
+        <v>42</v>
       </c>
       <c r="G94" t="n">
-        <v>-826050.7269399209</v>
+        <v>-810499.9597399209</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3870,22 +3936,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.02</v>
+        <v>12.19</v>
       </c>
       <c r="C95" t="n">
-        <v>12.01</v>
+        <v>12.3</v>
       </c>
       <c r="D95" t="n">
-        <v>12.02</v>
+        <v>12.3</v>
       </c>
       <c r="E95" t="n">
-        <v>12.01</v>
+        <v>12.19</v>
       </c>
       <c r="F95" t="n">
-        <v>140767.2942</v>
+        <v>48690.2585</v>
       </c>
       <c r="G95" t="n">
-        <v>-966818.0211399209</v>
+        <v>-761809.7012399209</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3906,22 +3972,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="C96" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="D96" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="E96" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="F96" t="n">
-        <v>13312.1435</v>
+        <v>5254.1508</v>
       </c>
       <c r="G96" t="n">
-        <v>-953505.8776399209</v>
+        <v>-761809.7012399209</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3942,22 +4008,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.02</v>
+        <v>12.2</v>
       </c>
       <c r="C97" t="n">
-        <v>12.03</v>
+        <v>12.2</v>
       </c>
       <c r="D97" t="n">
-        <v>12.03</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12.02</v>
+        <v>12.2</v>
       </c>
       <c r="F97" t="n">
-        <v>19082.543</v>
+        <v>36000</v>
       </c>
       <c r="G97" t="n">
-        <v>-953505.8776399209</v>
+        <v>-797809.7012399209</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3978,22 +4044,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="C98" t="n">
-        <v>12.03</v>
+        <v>12.2</v>
       </c>
       <c r="D98" t="n">
-        <v>12.03</v>
+        <v>12.3</v>
       </c>
       <c r="E98" t="n">
-        <v>12.03</v>
+        <v>12.2</v>
       </c>
       <c r="F98" t="n">
-        <v>61471.1945</v>
+        <v>12723.9957</v>
       </c>
       <c r="G98" t="n">
-        <v>-953505.8776399209</v>
+        <v>-797809.7012399209</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4014,22 +4080,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.09</v>
+        <v>12.3</v>
       </c>
       <c r="C99" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D99" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E99" t="n">
-        <v>12.09</v>
+        <v>12.3</v>
       </c>
       <c r="F99" t="n">
-        <v>243818.6306308064</v>
+        <v>43</v>
       </c>
       <c r="G99" t="n">
-        <v>-709687.2470091145</v>
+        <v>-797766.7012399209</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4050,22 +4116,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.42</v>
+        <v>12.3</v>
       </c>
       <c r="C100" t="n">
-        <v>12.48</v>
+        <v>12.3</v>
       </c>
       <c r="D100" t="n">
-        <v>12.48</v>
+        <v>12.3</v>
       </c>
       <c r="E100" t="n">
-        <v>12.42</v>
+        <v>12.3</v>
       </c>
       <c r="F100" t="n">
-        <v>80185.19156466346</v>
+        <v>304.878</v>
       </c>
       <c r="G100" t="n">
-        <v>-629502.055444451</v>
+        <v>-797766.7012399209</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4086,28 +4152,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.48</v>
+        <v>12.2</v>
       </c>
       <c r="C101" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D101" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E101" t="n">
-        <v>12.48</v>
+        <v>12.2</v>
       </c>
       <c r="F101" t="n">
-        <v>96089.46321053655</v>
+        <v>204.918</v>
       </c>
       <c r="G101" t="n">
-        <v>-533412.5922339145</v>
+        <v>-797971.6192399209</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4122,28 +4188,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.5</v>
+        <v>12.19</v>
       </c>
       <c r="C102" t="n">
-        <v>12.64</v>
+        <v>12.19</v>
       </c>
       <c r="D102" t="n">
-        <v>12.64</v>
+        <v>12.19</v>
       </c>
       <c r="E102" t="n">
-        <v>12.5</v>
+        <v>12.19</v>
       </c>
       <c r="F102" t="n">
-        <v>84636.03735684115</v>
+        <v>55.7415</v>
       </c>
       <c r="G102" t="n">
-        <v>-448776.5548770734</v>
+        <v>-798027.3607399209</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4158,22 +4224,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.49</v>
+        <v>12.17</v>
       </c>
       <c r="C103" t="n">
-        <v>12.3</v>
+        <v>11.97</v>
       </c>
       <c r="D103" t="n">
-        <v>12.49</v>
+        <v>12.17</v>
       </c>
       <c r="E103" t="n">
-        <v>12.3</v>
+        <v>11.97</v>
       </c>
       <c r="F103" t="n">
-        <v>12776.5135</v>
+        <v>30648.4257</v>
       </c>
       <c r="G103" t="n">
-        <v>-461553.0683770734</v>
+        <v>-828675.7864399209</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4194,22 +4260,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.21</v>
+        <v>12.19</v>
       </c>
       <c r="C104" t="n">
-        <v>12.21</v>
+        <v>12.19</v>
       </c>
       <c r="D104" t="n">
-        <v>12.21</v>
+        <v>12.19</v>
       </c>
       <c r="E104" t="n">
-        <v>12.21</v>
+        <v>12.19</v>
       </c>
       <c r="F104" t="n">
-        <v>856.3768</v>
+        <v>43</v>
       </c>
       <c r="G104" t="n">
-        <v>-462409.4451770734</v>
+        <v>-828632.7864399209</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4230,22 +4296,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
-        <v>32281.3271</v>
+        <v>1250</v>
       </c>
       <c r="G105" t="n">
-        <v>-494690.7722770734</v>
+        <v>-829882.7864399209</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4266,22 +4332,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="C106" t="n">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="D106" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="E106" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>37760.201</v>
+        <v>1477</v>
       </c>
       <c r="G106" t="n">
-        <v>-532450.9732770734</v>
+        <v>-828405.7864399209</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4302,22 +4368,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.14</v>
+        <v>12.05</v>
       </c>
       <c r="C107" t="n">
-        <v>12.14</v>
+        <v>12.06</v>
       </c>
       <c r="D107" t="n">
-        <v>12.14</v>
+        <v>12.06</v>
       </c>
       <c r="E107" t="n">
-        <v>12.14</v>
+        <v>12.05</v>
       </c>
       <c r="F107" t="n">
-        <v>856.3768</v>
+        <v>21572.8481</v>
       </c>
       <c r="G107" t="n">
-        <v>-531594.5964770734</v>
+        <v>-806832.9383399209</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4350,10 +4416,10 @@
         <v>12.29</v>
       </c>
       <c r="F108" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>-531552.5964770734</v>
+        <v>-806789.9383399209</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4374,22 +4440,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.15</v>
+        <v>12.29</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>12.29</v>
       </c>
       <c r="D109" t="n">
-        <v>12.15</v>
+        <v>12.29</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>12.29</v>
       </c>
       <c r="F109" t="n">
-        <v>10030.177</v>
+        <v>15933.763</v>
       </c>
       <c r="G109" t="n">
-        <v>-541582.7734770734</v>
+        <v>-806789.9383399209</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4410,22 +4476,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.27</v>
+        <v>12.29</v>
       </c>
       <c r="C110" t="n">
-        <v>12.27</v>
+        <v>12.29</v>
       </c>
       <c r="D110" t="n">
-        <v>12.27</v>
+        <v>12.29</v>
       </c>
       <c r="E110" t="n">
-        <v>12.27</v>
+        <v>12.29</v>
       </c>
       <c r="F110" t="n">
-        <v>41</v>
+        <v>27507.2228</v>
       </c>
       <c r="G110" t="n">
-        <v>-541541.7734770734</v>
+        <v>-806789.9383399209</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4446,22 +4512,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.27</v>
+        <v>12.3</v>
       </c>
       <c r="C111" t="n">
-        <v>12.27</v>
+        <v>12.3</v>
       </c>
       <c r="D111" t="n">
-        <v>12.27</v>
+        <v>12.3</v>
       </c>
       <c r="E111" t="n">
-        <v>12.27</v>
+        <v>12.3</v>
       </c>
       <c r="F111" t="n">
-        <v>7863.3115</v>
+        <v>41</v>
       </c>
       <c r="G111" t="n">
-        <v>-541541.7734770734</v>
+        <v>-806748.9383399209</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4485,19 +4551,19 @@
         <v>12.11</v>
       </c>
       <c r="C112" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="D112" t="n">
         <v>12.11</v>
       </c>
       <c r="E112" t="n">
-        <v>12.05</v>
+        <v>12.11</v>
       </c>
       <c r="F112" t="n">
-        <v>90750.0653</v>
+        <v>403</v>
       </c>
       <c r="G112" t="n">
-        <v>-632291.8387770734</v>
+        <v>-807151.9383399209</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4518,22 +4584,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C113" t="n">
-        <v>12.04</v>
+        <v>12.3</v>
       </c>
       <c r="D113" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E113" t="n">
-        <v>12.04</v>
+        <v>12.3</v>
       </c>
       <c r="F113" t="n">
-        <v>65184.1949</v>
+        <v>43</v>
       </c>
       <c r="G113" t="n">
-        <v>-697476.0336770734</v>
+        <v>-807108.9383399209</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4554,22 +4620,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.04</v>
+        <v>12.11</v>
       </c>
       <c r="C114" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="D114" t="n">
-        <v>12.04</v>
+        <v>12.11</v>
       </c>
       <c r="E114" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="F114" t="n">
-        <v>63944.1949</v>
+        <v>16515</v>
       </c>
       <c r="G114" t="n">
-        <v>-761420.2285770734</v>
+        <v>-823623.9383399209</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4590,22 +4656,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="C115" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="D115" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="E115" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="F115" t="n">
-        <v>288040.1752</v>
+        <v>2782</v>
       </c>
       <c r="G115" t="n">
-        <v>-761420.2285770734</v>
+        <v>-826405.9383399209</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4621,6 +4687,1050 @@
       </c>
       <c r="N115" t="inlineStr"/>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F116" t="n">
+        <v>862.7886</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-827268.7269399209</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5252.4914</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-827268.7269399209</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-827268.7269399209</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-823268.7269399209</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2782</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-826050.7269399209</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1690.7457</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-826050.7269399209</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24292.3916</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-826050.7269399209</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1234.8627</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-826050.7269399209</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F124" t="n">
+        <v>140767.2942</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-966818.0211399209</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13312.1435</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-953505.8776399209</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F126" t="n">
+        <v>19082.543</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-953505.8776399209</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F127" t="n">
+        <v>61471.1945</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-953505.8776399209</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="F128" t="n">
+        <v>243818.6306308064</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-709687.2470091145</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="F129" t="n">
+        <v>80185.19156466346</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-629502.055444451</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F130" t="n">
+        <v>96089.46321053655</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-533412.5922339145</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>84636.03735684115</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-448776.5548770734</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12776.5135</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-461553.0683770734</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F133" t="n">
+        <v>856.3768</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-462409.4451770734</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F134" t="n">
+        <v>32281.3271</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-494690.7722770734</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F135" t="n">
+        <v>37760.201</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-532450.9732770734</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F136" t="n">
+        <v>856.3768</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-531594.5964770734</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F137" t="n">
+        <v>42</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-531552.5964770734</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10030.177</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-541582.7734770734</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-541541.7734770734</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7863.3115</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-541541.7734770734</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>90750.0653</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-632291.8387770734</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F142" t="n">
+        <v>65184.1949</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-697476.0336770734</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F143" t="n">
+        <v>63944.1949</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-761420.2285770734</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F144" t="n">
+        <v>288040.1752</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-761420.2285770734</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,19 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>11.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +620,23 @@
         <v>-1976235.472573945</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>11.91</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +661,23 @@
         <v>-2022330.388773945</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +768,19 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.95</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +805,23 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.95</v>
       </c>
       <c r="J12" t="n">
         <v>11.95</v>
       </c>
-      <c r="K12" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -856,26 +846,23 @@
         <v>-2037035.669673945</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>11.95</v>
       </c>
       <c r="J13" t="n">
         <v>11.95</v>
       </c>
-      <c r="K13" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,26 +887,19 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="J14" t="n">
         <v>11.94</v>
       </c>
-      <c r="K14" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,22 +924,23 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.13</v>
       </c>
       <c r="J15" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>11.94</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,26 +965,23 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.13</v>
       </c>
       <c r="J16" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>11.94</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1028,24 +1006,19 @@
         <v>-1995960.986373945</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
         <v>12.13</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,26 +1043,23 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.14</v>
       </c>
       <c r="J18" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="K18" t="n">
         <v>12.13</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1114,24 +1084,23 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J19" t="n">
         <v>12.13</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1156,24 +1125,23 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J20" t="n">
         <v>12.13</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1198,26 +1166,23 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="J21" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K21" t="n">
         <v>12.13</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1207,23 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J22" t="n">
         <v>12.13</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1284,24 +1248,23 @@
         <v>-824748.2112739447</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J23" t="n">
         <v>12.13</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,24 +1289,23 @@
         <v>-715317.2823739448</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="J24" t="n">
         <v>12.13</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1370,22 +1332,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>12.13</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,22 +1371,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>12.13</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1454,22 +1410,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>12.13</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1496,22 +1449,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>12.13</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1538,22 +1488,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>12.13</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1580,22 +1527,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>12.13</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,22 +1566,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>12.13</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,22 +1605,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>12.13</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1706,22 +1644,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>12.13</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1748,22 +1683,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>12.13</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1790,22 +1722,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>12.13</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1.046112943116241</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1832,16 +1761,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1868,16 +1800,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1904,16 +1839,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1940,16 +1878,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1976,16 +1917,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2012,16 +1956,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2048,16 +1995,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2082,18 +2032,21 @@
         <v>-470597.1331399209</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.017258862324815</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2118,18 +2071,15 @@
         <v>-609947.563939921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2156,16 +2106,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,16 +2139,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2228,16 +2172,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2264,16 +2205,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2300,16 +2238,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2336,16 +2271,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2372,16 +2304,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,16 +2337,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2444,16 +2370,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2480,16 +2403,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2516,16 +2436,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2552,16 +2469,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2586,18 +2500,15 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2624,16 +2535,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2660,16 +2568,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2696,16 +2601,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2730,18 +2632,15 @@
         <v>-147056.251739921</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2768,16 +2667,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2804,16 +2700,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2840,16 +2733,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2876,16 +2766,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2912,16 +2799,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2948,16 +2832,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2984,16 +2865,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3018,18 +2896,15 @@
         <v>-327925.410339921</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3056,16 +2931,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3092,16 +2964,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3128,16 +2997,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3164,16 +3030,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3200,16 +3063,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3236,16 +3096,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3272,16 +3129,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3308,16 +3162,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3344,16 +3195,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3380,16 +3228,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3416,16 +3261,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3452,16 +3294,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3488,16 +3327,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3524,16 +3360,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3560,16 +3393,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3596,16 +3426,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3632,16 +3459,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3668,16 +3492,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3704,16 +3525,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3740,16 +3558,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3776,16 +3591,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3812,16 +3624,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3848,16 +3657,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3884,16 +3690,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3920,16 +3723,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3956,16 +3756,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3992,16 +3789,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4028,16 +3822,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4064,16 +3855,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4098,18 +3886,15 @@
         <v>-797766.7012399209</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4134,18 +3919,15 @@
         <v>-797766.7012399209</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4172,16 +3954,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4208,16 +3987,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4244,16 +4020,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4278,18 +4051,15 @@
         <v>-828632.7864399209</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4316,16 +4086,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,16 +4119,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4388,16 +4152,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4422,18 +4183,15 @@
         <v>-806789.9383399209</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4460,16 +4218,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4496,16 +4251,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4532,16 +4284,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4566,18 +4315,15 @@
         <v>-807151.9383399209</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4604,16 +4350,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4638,18 +4381,15 @@
         <v>-823623.9383399209</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4676,16 +4416,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4712,16 +4449,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4748,16 +4482,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4784,16 +4515,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4820,16 +4548,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4854,18 +4579,19 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12.04</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4890,18 +4616,23 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J121" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4926,18 +4657,23 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J122" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4962,18 +4698,19 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12.03</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4998,18 +4735,23 @@
         <v>-966818.0211399209</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5034,18 +4776,23 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>12.01</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5070,18 +4817,23 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5106,18 +4858,23 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J127" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5142,18 +4899,23 @@
         <v>-709687.2470091145</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="J128" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5178,18 +4940,23 @@
         <v>-629502.055444451</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>12.4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5216,16 +4983,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5250,18 +5020,21 @@
         <v>-448776.5548770734</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5288,16 +5061,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5322,18 +5098,21 @@
         <v>-462409.4451770734</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5358,18 +5137,21 @@
         <v>-494690.7722770734</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5394,18 +5176,21 @@
         <v>-532450.9732770734</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5430,18 +5215,21 @@
         <v>-531594.5964770734</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5466,18 +5254,21 @@
         <v>-531552.5964770734</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5502,18 +5293,21 @@
         <v>-541582.7734770734</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5540,16 +5334,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5576,16 +5373,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5612,16 +5412,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5648,16 +5451,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5684,16 +5490,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5720,18 +5529,21 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,7 +616,7 @@
         <v>-1976235.472573945</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>11.91</v>
@@ -628,11 +624,7 @@
       <c r="J7" t="n">
         <v>11.91</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,11 +653,9 @@
         <v>-2022330.388773945</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>11.91</v>
       </c>
@@ -705,8 +695,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,7 +764,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>11.95</v>
@@ -805,7 +801,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>11.95</v>
@@ -846,7 +842,7 @@
         <v>-2037035.669673945</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>11.95</v>
@@ -887,7 +883,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>11.94</v>
@@ -924,7 +920,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>12.13</v>
@@ -965,7 +961,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>12.13</v>
@@ -1006,7 +1002,7 @@
         <v>-1995960.986373945</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>12.13</v>
@@ -1043,7 +1039,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>12.14</v>
@@ -1084,7 +1080,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>12.12</v>
@@ -1125,7 +1121,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>12.12</v>
@@ -1166,7 +1162,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>12.12</v>
@@ -1207,7 +1203,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>12.2</v>
@@ -1248,11 +1244,9 @@
         <v>-824748.2112739447</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>12.13</v>
       </c>
@@ -1289,11 +1283,9 @@
         <v>-715317.2823739448</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>12.13</v>
       </c>
@@ -2032,7 +2024,7 @@
         <v>-470597.1331399209</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2040,11 +2032,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.017258862324815</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2071,11 +2063,17 @@
         <v>-609947.563939921</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2107,8 +2105,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2140,8 +2144,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2173,8 +2183,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2206,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2239,8 +2261,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2272,8 +2300,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2305,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2338,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2371,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2404,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2437,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2470,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2570,17 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2536,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2569,8 +2651,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2602,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2726,17 @@
         <v>-147056.251739921</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2668,8 +2768,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2701,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2734,8 +2846,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2764,13 +2882,19 @@
         <v>-146890.251739921</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0.9925267930750206</v>
       </c>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2797,7 +2921,7 @@
         <v>-146890.251739921</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2830,7 +2954,7 @@
         <v>-298770.874139921</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2863,7 +2987,7 @@
         <v>-327925.410339921</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2896,7 +3020,7 @@
         <v>-327925.410339921</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3061,7 +3185,7 @@
         <v>-830245.653539921</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3094,7 +3218,7 @@
         <v>-830202.653539921</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3127,7 +3251,7 @@
         <v>-830279.788839921</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3160,7 +3284,7 @@
         <v>-817335.400439921</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3193,7 +3317,7 @@
         <v>-817335.400439921</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3886,7 +4010,7 @@
         <v>-797766.7012399209</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3919,7 +4043,7 @@
         <v>-797766.7012399209</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4051,7 +4175,7 @@
         <v>-828632.7864399209</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4183,7 +4307,7 @@
         <v>-806789.9383399209</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4315,7 +4439,7 @@
         <v>-807151.9383399209</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4381,7 +4505,7 @@
         <v>-823623.9383399209</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4579,14 +4703,10 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4616,19 +4736,11 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J121" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4657,19 +4769,11 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J122" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4698,14 +4802,10 @@
         <v>-826050.7269399209</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J123" t="n">
-        <v>12.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4735,19 +4835,11 @@
         <v>-966818.0211399209</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4868,11 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="J125" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4817,19 +4901,11 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4858,19 +4934,11 @@
         <v>-953505.8776399209</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4899,19 +4967,11 @@
         <v>-709687.2470091145</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J128" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4940,19 +5000,11 @@
         <v>-629502.055444451</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +5036,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5020,17 +5066,11 @@
         <v>-448776.5548770734</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +5102,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5098,17 +5132,11 @@
         <v>-462409.4451770734</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5137,17 +5165,11 @@
         <v>-494690.7722770734</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5176,17 +5198,11 @@
         <v>-532450.9732770734</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5215,17 +5231,11 @@
         <v>-531594.5964770734</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5254,17 +5264,11 @@
         <v>-531552.5964770734</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5293,17 +5297,11 @@
         <v>-541582.7734770734</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +5333,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +5366,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +5399,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5452,14 +5432,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5465,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5530,20 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -624,7 +648,11 @@
       <c r="J7" t="n">
         <v>11.91</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -695,84 +723,86 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8144.896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2030475.284773945</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55106.4798</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2030475.284773945</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8144.896</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-2030475.284773945</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F11" t="n">
-        <v>55106.4798</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-2030475.284773945</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -807,7 +837,7 @@
         <v>11.95</v>
       </c>
       <c r="J12" t="n">
-        <v>11.95</v>
+        <v>11.98</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -850,48 +880,48 @@
       <c r="J13" t="n">
         <v>11.95</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F14" t="n">
+        <v>41024.6833</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1996010.986373945</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41024.6833</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1996010.986373945</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,13 +950,11 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -961,19 +989,11 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +1022,10 @@
         <v>-1995960.986373945</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1039,19 +1055,11 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,19 +1088,11 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,19 +1121,11 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1162,19 +1154,11 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,19 +1187,11 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1247,14 +1223,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1286,14 +1256,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1325,14 +1289,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1364,14 +1322,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1403,14 +1355,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1439,17 +1385,11 @@
         <v>-96789.54667919537</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1478,17 +1418,11 @@
         <v>-95639.54667919537</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1520,14 +1454,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1559,14 +1487,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1598,14 +1520,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1637,14 +1553,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1676,14 +1586,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1715,14 +1619,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1754,14 +1652,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1685,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1832,14 +1718,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1871,14 +1751,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1910,14 +1784,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1949,14 +1817,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1988,14 +1850,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2027,14 +1883,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2066,14 +1916,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2105,14 +1949,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2144,14 +1982,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2219,17 +2045,11 @@
         <v>-73147.712739921</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2258,17 +2078,11 @@
         <v>-67111.00603992101</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2297,17 +2111,11 @@
         <v>-112361.077139921</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2336,17 +2144,11 @@
         <v>-101687.761839921</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2375,17 +2177,11 @@
         <v>-102042.052839921</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2414,17 +2210,11 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2453,17 +2243,11 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2492,17 +2276,11 @@
         <v>-151863.167539921</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2531,17 +2309,11 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2570,17 +2342,11 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2612,14 +2378,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2411,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2444,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2729,14 +2477,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2768,14 +2510,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2807,14 +2543,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2846,14 +2576,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2882,19 +2606,13 @@
         <v>-146890.251739921</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.9925267930750206</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2921,7 +2639,7 @@
         <v>-146890.251739921</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2954,7 +2672,7 @@
         <v>-298770.874139921</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2987,7 +2705,7 @@
         <v>-327925.410339921</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3185,7 +2903,7 @@
         <v>-830245.653539921</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3218,7 +2936,7 @@
         <v>-830202.653539921</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3251,7 +2969,7 @@
         <v>-830279.788839921</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3284,7 +3002,7 @@
         <v>-817335.400439921</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3317,7 +3035,7 @@
         <v>-817335.400439921</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -5506,6 +5224,6 @@
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -484,14 +484,10 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-1976235.472573945</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -753,14 +715,10 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -790,19 +748,11 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,19 +781,11 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -950,9 +892,11 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.13</v>
+      </c>
       <c r="J15" t="n">
         <v>11.95</v>
       </c>
@@ -989,10 +933,14 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.13</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -1022,11 +970,19 @@
         <v>-1995960.986373945</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1058,8 +1014,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1088,11 +1050,19 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1091,19 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,11 +1132,19 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1187,11 +1173,19 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1223,8 +1217,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1256,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1289,8 +1295,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1322,8 +1334,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1355,8 +1373,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1385,11 +1409,17 @@
         <v>-96789.54667919537</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1418,11 +1448,17 @@
         <v>-95639.54667919537</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1454,8 +1490,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1484,15 +1526,23 @@
         <v>4424.096760079032</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>1.055181368507832</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.019311502938707</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1517,7 +1567,7 @@
         <v>4424.096760079032</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1550,7 +1600,7 @@
         <v>-91723.06833992097</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1583,7 +1633,7 @@
         <v>-233644.5288399209</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1616,7 +1666,7 @@
         <v>-233588.5288399209</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1649,7 +1699,7 @@
         <v>-357579.4394399209</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1682,7 +1732,7 @@
         <v>-357579.4394399209</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1715,7 +1765,7 @@
         <v>-361522.127139921</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1748,7 +1798,7 @@
         <v>-361412.127139921</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1781,7 +1831,7 @@
         <v>-364317.5875399209</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1814,7 +1864,7 @@
         <v>-364179.5875399209</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1847,7 +1897,7 @@
         <v>-364223.5875399209</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1880,7 +1930,7 @@
         <v>-470597.1331399209</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2045,7 +2095,7 @@
         <v>-73147.712739921</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2078,7 +2128,7 @@
         <v>-67111.00603992101</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2111,7 +2161,7 @@
         <v>-112361.077139921</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2144,7 +2194,7 @@
         <v>-101687.761839921</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2177,7 +2227,7 @@
         <v>-102042.052839921</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2210,7 +2260,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2243,7 +2293,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2276,7 +2326,7 @@
         <v>-151863.167539921</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2309,7 +2359,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2342,7 +2392,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest TRV.xlsx
+++ b/BackTest/2020-01-25 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>203013.2136</v>
       </c>
       <c r="G2" t="n">
-        <v>-2030064.324073945</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>352101.0423</v>
       </c>
       <c r="G3" t="n">
-        <v>-2030064.324073945</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>160586.624</v>
       </c>
       <c r="G4" t="n">
-        <v>-2030064.324073945</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,19 @@
         <v>14158.3214</v>
       </c>
       <c r="G5" t="n">
-        <v>-2030064.324073945</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>11.91</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.91</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +567,23 @@
         <v>37865.0367</v>
       </c>
       <c r="G6" t="n">
-        <v>-2030064.324073945</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>11.91</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +605,23 @@
         <v>53828.8515</v>
       </c>
       <c r="G7" t="n">
-        <v>-1976235.472573945</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>11.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +643,15 @@
         <v>46094.9162</v>
       </c>
       <c r="G8" t="n">
-        <v>-2022330.388773945</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +673,15 @@
         <v>3636.1716</v>
       </c>
       <c r="G9" t="n">
-        <v>-2022330.388773945</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +703,15 @@
         <v>8144.896</v>
       </c>
       <c r="G10" t="n">
-        <v>-2030475.284773945</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +733,15 @@
         <v>55106.4798</v>
       </c>
       <c r="G11" t="n">
-        <v>-2030475.284773945</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +763,15 @@
         <v>16066.945</v>
       </c>
       <c r="G12" t="n">
-        <v>-2030475.284773945</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,22 +793,15 @@
         <v>6560.3849</v>
       </c>
       <c r="G13" t="n">
-        <v>-2037035.669673945</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -848,26 +823,15 @@
         <v>41024.6833</v>
       </c>
       <c r="G14" t="n">
-        <v>-1996010.986373945</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -889,26 +853,15 @@
         <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>-1996010.986373945</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,22 +883,15 @@
         <v>2680.9512</v>
       </c>
       <c r="G16" t="n">
-        <v>-1996010.986373945</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -967,26 +913,15 @@
         <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>-1995960.986373945</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,24 +943,15 @@
         <v>35938.2835</v>
       </c>
       <c r="G18" t="n">
-        <v>-2031899.269873945</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,26 +973,15 @@
         <v>36153.1978</v>
       </c>
       <c r="G19" t="n">
-        <v>-2031899.269873945</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1088,26 +1003,15 @@
         <v>7500</v>
       </c>
       <c r="G20" t="n">
-        <v>-2031899.269873945</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,26 +1033,15 @@
         <v>21618</v>
       </c>
       <c r="G21" t="n">
-        <v>-2010281.269873945</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1170,26 +1063,15 @@
         <v>380813.5021</v>
       </c>
       <c r="G22" t="n">
-        <v>-2010281.269873945</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1211,24 +1093,15 @@
         <v>1185533.0586</v>
       </c>
       <c r="G23" t="n">
-        <v>-824748.2112739447</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,24 +1123,15 @@
         <v>109430.9289</v>
       </c>
       <c r="G24" t="n">
-        <v>-715317.2823739448</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,24 +1153,15 @@
         <v>273194.2777340239</v>
       </c>
       <c r="G25" t="n">
-        <v>-442123.0046399208</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1328,24 +1183,15 @@
         <v>343473.4579607255</v>
       </c>
       <c r="G26" t="n">
-        <v>-98649.54667919537</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1367,24 +1213,15 @@
         <v>1860</v>
       </c>
       <c r="G27" t="n">
-        <v>-96789.54667919537</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1406,24 +1243,15 @@
         <v>1644.2831</v>
       </c>
       <c r="G28" t="n">
-        <v>-96789.54667919537</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1445,24 +1273,15 @@
         <v>1150</v>
       </c>
       <c r="G29" t="n">
-        <v>-95639.54667919537</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,24 +1303,15 @@
         <v>208.3668</v>
       </c>
       <c r="G30" t="n">
-        <v>-95639.54667919537</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,26 +1333,15 @@
         <v>100063.6434392744</v>
       </c>
       <c r="G31" t="n">
-        <v>4424.096760079032</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1.055181368507832</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.019311502938707</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1564,18 +1363,15 @@
         <v>43222.6528</v>
       </c>
       <c r="G32" t="n">
-        <v>4424.096760079032</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,18 +1393,15 @@
         <v>96147.1651</v>
       </c>
       <c r="G33" t="n">
-        <v>-91723.06833992097</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,18 +1423,15 @@
         <v>141921.4605</v>
       </c>
       <c r="G34" t="n">
-        <v>-233644.5288399209</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1663,18 +1453,15 @@
         <v>56</v>
       </c>
       <c r="G35" t="n">
-        <v>-233588.5288399209</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1696,18 +1483,15 @@
         <v>123990.9106</v>
       </c>
       <c r="G36" t="n">
-        <v>-357579.4394399209</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1729,18 +1513,15 @@
         <v>16061.4047</v>
       </c>
       <c r="G37" t="n">
-        <v>-357579.4394399209</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1762,18 +1543,15 @@
         <v>3942.6877</v>
       </c>
       <c r="G38" t="n">
-        <v>-361522.127139921</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1795,18 +1573,15 @@
         <v>110</v>
       </c>
       <c r="G39" t="n">
-        <v>-361412.127139921</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1828,18 +1603,15 @@
         <v>2905.4604</v>
       </c>
       <c r="G40" t="n">
-        <v>-364317.5875399209</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1861,18 +1633,15 @@
         <v>138</v>
       </c>
       <c r="G41" t="n">
-        <v>-364179.5875399209</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1894,18 +1663,15 @@
         <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>-364223.5875399209</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1927,18 +1693,15 @@
         <v>106373.5456</v>
       </c>
       <c r="G43" t="n">
-        <v>-470597.1331399209</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1960,18 +1723,15 @@
         <v>139350.4308</v>
       </c>
       <c r="G44" t="n">
-        <v>-609947.563939921</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1993,18 +1753,15 @@
         <v>550077.078</v>
       </c>
       <c r="G45" t="n">
-        <v>-59870.485939921</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2026,18 +1783,15 @@
         <v>1540</v>
       </c>
       <c r="G46" t="n">
-        <v>-61410.485939921</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,18 +1813,15 @@
         <v>91898.07120000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-153308.557139921</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2092,18 +1843,15 @@
         <v>80160.8444</v>
       </c>
       <c r="G48" t="n">
-        <v>-73147.712739921</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,18 +1873,15 @@
         <v>6036.7067</v>
       </c>
       <c r="G49" t="n">
-        <v>-67111.00603992101</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,18 +1903,15 @@
         <v>45250.0711</v>
       </c>
       <c r="G50" t="n">
-        <v>-112361.077139921</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2191,18 +1933,15 @@
         <v>10673.3153</v>
       </c>
       <c r="G51" t="n">
-        <v>-101687.761839921</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2224,18 +1963,15 @@
         <v>354.291</v>
       </c>
       <c r="G52" t="n">
-        <v>-102042.052839921</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2257,18 +1993,15 @@
         <v>226.1026</v>
       </c>
       <c r="G53" t="n">
-        <v>-101815.950239921</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2290,18 +2023,15 @@
         <v>7075.6883</v>
       </c>
       <c r="G54" t="n">
-        <v>-101815.950239921</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2323,18 +2053,15 @@
         <v>50047.2173</v>
       </c>
       <c r="G55" t="n">
-        <v>-151863.167539921</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2356,18 +2083,15 @@
         <v>839.3507</v>
       </c>
       <c r="G56" t="n">
-        <v>-152702.518239921</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2389,18 +2113,15 @@
         <v>623.2672</v>
       </c>
       <c r="G57" t="n">
-        <v>-152702.518239921</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,18 +2143,15 @@
         <v>5000</v>
       </c>
       <c r="G58" t="n">
-        <v>-157702.518239921</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2455,18 +2173,15 @@
         <v>6402.2665</v>
       </c>
       <c r="G59" t="n">
-        <v>-151300.251739921</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2488,18 +2203,15 @@
         <v>4294</v>
       </c>
       <c r="G60" t="n">
-        <v>-147006.251739921</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2521,18 +2233,15 @@
         <v>50</v>
       </c>
       <c r="G61" t="n">
-        <v>-147056.251739921</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2554,18 +2263,15 @@
         <v>77</v>
       </c>
       <c r="G62" t="n">
-        <v>-146979.251739921</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2587,18 +2293,15 @@
         <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-146929.251739921</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2620,18 +2323,15 @@
         <v>105</v>
       </c>
       <c r="G64" t="n">
-        <v>-146824.251739921</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,18 +2353,15 @@
         <v>66</v>
       </c>
       <c r="G65" t="n">
-        <v>-146890.251739921</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2686,18 +2383,15 @@
         <v>172</v>
       </c>
       <c r="G66" t="n">
-        <v>-146890.251739921</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2719,18 +2413,15 @@
         <v>151880.6224</v>
       </c>
       <c r="G67" t="n">
-        <v>-298770.874139921</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2752,18 +2443,15 @@
         <v>29154.5362</v>
       </c>
       <c r="G68" t="n">
-        <v>-327925.410339921</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2785,18 +2473,15 @@
         <v>1983.2665</v>
       </c>
       <c r="G69" t="n">
-        <v>-327925.410339921</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2818,18 +2503,15 @@
         <v>11614.8526</v>
       </c>
       <c r="G70" t="n">
-        <v>-327925.410339921</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2851,18 +2533,15 @@
         <v>134000</v>
       </c>
       <c r="G71" t="n">
-        <v>-327925.410339921</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2884,18 +2563,15 @@
         <v>90094.9656</v>
       </c>
       <c r="G72" t="n">
-        <v>-418020.375939921</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2917,18 +2593,15 @@
         <v>314555.642</v>
       </c>
       <c r="G73" t="n">
-        <v>-732576.017939921</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2950,18 +2623,15 @@
         <v>97669.63559999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-830245.653539921</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2983,18 +2653,15 @@
         <v>43</v>
       </c>
       <c r="G75" t="n">
-        <v>-830202.653539921</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3016,18 +2683,15 @@
         <v>77.1353</v>
       </c>
       <c r="G76" t="n">
-        <v>-830279.788839921</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3049,18 +2713,15 @@
         <v>12944.3884</v>
       </c>
       <c r="G77" t="n">
-        <v>-817335.400439921</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3082,18 +2743,15 @@
         <v>1983.4182</v>
       </c>
       <c r="G78" t="n">
-        <v>-817335.400439921</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3115,18 +2773,15 @@
         <v>3926.3392</v>
       </c>
       <c r="G79" t="n">
-        <v>-817335.400439921</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3148,18 +2803,15 @@
         <v>179</v>
       </c>
       <c r="G80" t="n">
-        <v>-817156.400439921</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3181,18 +2833,15 @@
         <v>43</v>
       </c>
       <c r="G81" t="n">
-        <v>-817113.400439921</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3214,18 +2863,15 @@
         <v>513.9512</v>
       </c>
       <c r="G82" t="n">
-        <v>-817627.351639921</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3247,18 +2893,15 @@
         <v>62.866</v>
       </c>
       <c r="G83" t="n">
-        <v>-817564.4856399209</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3280,18 +2923,15 @@
         <v>1639.6321</v>
       </c>
       <c r="G84" t="n">
-        <v>-819204.117739921</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3313,18 +2953,15 @@
         <v>451.0852</v>
       </c>
       <c r="G85" t="n">
-        <v>-819204.117739921</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3346,18 +2983,15 @@
         <v>77</v>
       </c>
       <c r="G86" t="n">
-        <v>-819127.117739921</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3379,18 +3013,15 @@
         <v>7848.4349</v>
       </c>
       <c r="G87" t="n">
-        <v>-826975.552639921</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3412,18 +3043,15 @@
         <v>77</v>
       </c>
       <c r="G88" t="n">
-        <v>-826975.552639921</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3445,18 +3073,15 @@
         <v>42</v>
       </c>
       <c r="G89" t="n">
-        <v>-826933.552639921</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3478,18 +3103,15 @@
         <v>6115.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-826933.552639921</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3511,18 +3133,15 @@
         <v>3259.966520462046</v>
       </c>
       <c r="G91" t="n">
-        <v>-823673.5861194589</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3544,18 +3163,15 @@
         <v>13131.62637953795</v>
       </c>
       <c r="G92" t="n">
-        <v>-810541.9597399209</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3577,18 +3193,15 @@
         <v>46047.2232</v>
       </c>
       <c r="G93" t="n">
-        <v>-810541.9597399209</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3610,18 +3223,15 @@
         <v>42</v>
       </c>
       <c r="G94" t="n">
-        <v>-810499.9597399209</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3643,18 +3253,15 @@
         <v>48690.2585</v>
       </c>
       <c r="G95" t="n">
-        <v>-761809.7012399209</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3676,18 +3283,15 @@
         <v>5254.1508</v>
       </c>
       <c r="G96" t="n">
-        <v>-761809.7012399209</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3709,18 +3313,15 @@
         <v>36000</v>
       </c>
       <c r="G97" t="n">
-        <v>-797809.7012399209</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3742,18 +3343,15 @@
         <v>12723.9957</v>
       </c>
       <c r="G98" t="n">
-        <v>-797809.7012399209</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3775,18 +3373,15 @@
         <v>43</v>
       </c>
       <c r="G99" t="n">
-        <v>-797766.7012399209</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3808,18 +3403,15 @@
         <v>304.878</v>
       </c>
       <c r="G100" t="n">
-        <v>-797766.7012399209</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3841,18 +3433,15 @@
         <v>204.918</v>
       </c>
       <c r="G101" t="n">
-        <v>-797971.6192399209</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3874,18 +3463,15 @@
         <v>55.7415</v>
       </c>
       <c r="G102" t="n">
-        <v>-798027.3607399209</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3907,18 +3493,15 @@
         <v>30648.4257</v>
       </c>
       <c r="G103" t="n">
-        <v>-828675.7864399209</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3940,18 +3523,15 @@
         <v>43</v>
       </c>
       <c r="G104" t="n">
-        <v>-828632.7864399209</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3973,18 +3553,15 @@
         <v>1250</v>
       </c>
       <c r="G105" t="n">
-        <v>-829882.7864399209</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4006,18 +3583,15 @@
         <v>1477</v>
       </c>
       <c r="G106" t="n">
-        <v>-828405.7864399209</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4039,18 +3613,15 @@
         <v>21572.8481</v>
       </c>
       <c r="G107" t="n">
-        <v>-806832.9383399209</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4072,18 +3643,15 @@
         <v>43</v>
       </c>
       <c r="G108" t="n">
-        <v>-806789.9383399209</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4105,18 +3673,15 @@
         <v>15933.763</v>
       </c>
       <c r="G109" t="n">
-        <v>-806789.9383399209</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4138,18 +3703,15 @@
         <v>27507.2228</v>
       </c>
       <c r="G110" t="n">
-        <v>-806789.9383399209</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4171,18 +3733,15 @@
         <v>41</v>
       </c>
       <c r="G111" t="n">
-        <v>-806748.9383399209</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4204,18 +3763,15 @@
         <v>403</v>
       </c>
       <c r="G112" t="n">
-        <v>-807151.9383399209</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4237,18 +3793,15 @@
         <v>43</v>
       </c>
       <c r="G113" t="n">
-        <v>-807108.9383399209</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4270,18 +3823,15 @@
         <v>16515</v>
       </c>
       <c r="G114" t="n">
-        <v>-823623.9383399209</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4303,18 +3853,15 @@
         <v>2782</v>
       </c>
       <c r="G115" t="n">
-        <v>-826405.9383399209</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4336,18 +3883,15 @@
         <v>862.7886</v>
       </c>
       <c r="G116" t="n">
-        <v>-827268.7269399209</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4369,18 +3913,15 @@
         <v>5252.4914</v>
       </c>
       <c r="G117" t="n">
-        <v>-827268.7269399209</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4402,18 +3943,15 @@
         <v>20000</v>
       </c>
       <c r="G118" t="n">
-        <v>-827268.7269399209</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4435,18 +3973,15 @@
         <v>4000</v>
       </c>
       <c r="G119" t="n">
-        <v>-823268.7269399209</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4468,18 +4003,15 @@
         <v>2782</v>
       </c>
       <c r="G120" t="n">
-        <v>-826050.7269399209</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4501,18 +4033,15 @@
         <v>1690.7457</v>
       </c>
       <c r="G121" t="n">
-        <v>-826050.7269399209</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4534,18 +4063,15 @@
         <v>24292.3916</v>
       </c>
       <c r="G122" t="n">
-        <v>-826050.7269399209</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4567,18 +4093,15 @@
         <v>1234.8627</v>
       </c>
       <c r="G123" t="n">
-        <v>-826050.7269399209</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4600,18 +4123,15 @@
         <v>140767.2942</v>
       </c>
       <c r="G124" t="n">
-        <v>-966818.0211399209</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4633,18 +4153,15 @@
         <v>13312.1435</v>
       </c>
       <c r="G125" t="n">
-        <v>-953505.8776399209</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4666,18 +4183,15 @@
         <v>19082.543</v>
       </c>
       <c r="G126" t="n">
-        <v>-953505.8776399209</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4699,18 +4213,15 @@
         <v>61471.1945</v>
       </c>
       <c r="G127" t="n">
-        <v>-953505.8776399209</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4732,18 +4243,15 @@
         <v>243818.6306308064</v>
       </c>
       <c r="G128" t="n">
-        <v>-709687.2470091145</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4765,18 +4273,15 @@
         <v>80185.19156466346</v>
       </c>
       <c r="G129" t="n">
-        <v>-629502.055444451</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4798,18 +4303,15 @@
         <v>96089.46321053655</v>
       </c>
       <c r="G130" t="n">
-        <v>-533412.5922339145</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4831,18 +4333,15 @@
         <v>84636.03735684115</v>
       </c>
       <c r="G131" t="n">
-        <v>-448776.5548770734</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4864,18 +4363,15 @@
         <v>12776.5135</v>
       </c>
       <c r="G132" t="n">
-        <v>-461553.0683770734</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4897,18 +4393,15 @@
         <v>856.3768</v>
       </c>
       <c r="G133" t="n">
-        <v>-462409.4451770734</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4930,18 +4423,15 @@
         <v>32281.3271</v>
       </c>
       <c r="G134" t="n">
-        <v>-494690.7722770734</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4963,18 +4453,15 @@
         <v>37760.201</v>
       </c>
       <c r="G135" t="n">
-        <v>-532450.9732770734</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4996,18 +4483,15 @@
         <v>856.3768</v>
       </c>
       <c r="G136" t="n">
-        <v>-531594.5964770734</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5029,18 +4513,15 @@
         <v>42</v>
       </c>
       <c r="G137" t="n">
-        <v>-531552.5964770734</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5062,18 +4543,15 @@
         <v>10030.177</v>
       </c>
       <c r="G138" t="n">
-        <v>-541582.7734770734</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5095,18 +4573,15 @@
         <v>41</v>
       </c>
       <c r="G139" t="n">
-        <v>-541541.7734770734</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5128,18 +4603,15 @@
         <v>7863.3115</v>
       </c>
       <c r="G140" t="n">
-        <v>-541541.7734770734</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5161,18 +4633,15 @@
         <v>90750.0653</v>
       </c>
       <c r="G141" t="n">
-        <v>-632291.8387770734</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5194,18 +4663,15 @@
         <v>65184.1949</v>
       </c>
       <c r="G142" t="n">
-        <v>-697476.0336770734</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5227,18 +4693,15 @@
         <v>63944.1949</v>
       </c>
       <c r="G143" t="n">
-        <v>-761420.2285770734</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5260,18 +4723,15 @@
         <v>288040.1752</v>
       </c>
       <c r="G144" t="n">
-        <v>-761420.2285770734</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
